--- a/GdP_RED.xlsx
+++ b/GdP_RED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanp\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c637b82d293ab75e/Documenti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A941076-5205-4237-ADD2-28E4ED33158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A65D88C9-4D31-48A7-B910-3ED2FF431DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4568CD5-B2EB-4847-B8C8-CB396EE96F70}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D6C504DC-70C3-4139-99BE-4C6BBC477440}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6C504DC-70C3-4139-99BE-4C6BBC477440}"/>
   </bookViews>
   <sheets>
     <sheet name="GdP" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -94,26 +92,29 @@
     <t xml:space="preserve">  Étudiants</t>
   </si>
   <si>
-    <t>Étudiant 1</t>
-  </si>
-  <si>
     <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Étudiant 2</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Étudiant 3</t>
+    <t>Zyrrathion</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Dylan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,7 +549,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -562,7 +563,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -903,22 +904,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CFFF9C-EA01-4587-A7BA-633E67FCD999}">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1"/>
-    <col min="5" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="1"/>
+    <col min="5" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1"/>
-    <row r="2" spans="2:11" ht="39.6" customHeight="1" thickBot="1">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
@@ -929,11 +930,13 @@
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="2:11" ht="17.100000000000001" thickBot="1">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
@@ -953,60 +956,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="16.5">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="16.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
       <c r="C5" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
+      <c r="H5" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="17.100000000000001" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="21"/>
       <c r="C6" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="16.5">
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4">
@@ -1015,37 +1024,41 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="16.5">
+      <c r="H7" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="16.5">
+      <c r="H8" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4">
         <v>6</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="16.5">
+      <c r="H9" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4">
@@ -1053,64 +1066,74 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="16.5">
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="16.5">
+      <c r="H11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4">
         <v>9</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="16.5">
+      <c r="H12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4">
         <v>10</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="16.5">
+      <c r="H13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4">
         <v>11</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="16.5">
+      <c r="H14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4">
@@ -1119,63 +1142,71 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="16.5">
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4">
         <v>13</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="16.5">
+      <c r="H16" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4">
         <v>14</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="16.5">
+      <c r="H17" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4">
         <v>15</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="16.5">
+      <c r="H18" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4">
         <v>16</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="16.5">
+      <c r="H19" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4">
@@ -1183,12 +1214,14 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="16.5">
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4">
@@ -1196,64 +1229,74 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="16.5">
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4">
         <v>19</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="16.5">
+      <c r="H22" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4">
         <v>20</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="16.5">
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4">
         <v>21</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="16.5">
+      <c r="H24" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4">
         <v>22</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="16.5">
+      <c r="H25" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4">
@@ -1266,7 +1309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="16.5">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4">
@@ -1279,7 +1322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="16.5">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4">
@@ -1292,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="16.5">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4">
@@ -1305,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="16.5">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4">
@@ -1318,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="16.5">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4">
@@ -1331,7 +1374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="16.5">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4">
@@ -1344,7 +1387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16.5">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4">
@@ -1357,7 +1400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16.5">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4">
@@ -1370,7 +1413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17.100000000000001" thickBot="1">
+    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="6">
@@ -1389,14 +1432,14 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Todo"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Done"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Done"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Todo"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1412,6 +1455,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d068e648-32f8-481f-a8f5-3ea019f54b7d" xsi:nil="true"/>
@@ -1420,15 +1472,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1667,13 +1710,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD66D29-06A9-4143-B590-090B341E9F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20E735A-67AF-402C-BD43-BF0A7610D2D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20E735A-67AF-402C-BD43-BF0A7610D2D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD66D29-06A9-4143-B590-090B341E9F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d068e648-32f8-481f-a8f5-3ea019f54b7d"/>
+    <ds:schemaRef ds:uri="f2c841d9-878d-400c-bac0-4e58b9c15a46"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CECA5D-0BA7-4A69-B01E-A46D8B17CF84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CECA5D-0BA7-4A69-B01E-A46D8B17CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2c841d9-878d-400c-bac0-4e58b9c15a46"/>
+    <ds:schemaRef ds:uri="d068e648-32f8-481f-a8f5-3ea019f54b7d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>